--- a/Acesse.xlsx
+++ b/Acesse.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="120" windowWidth="24735" windowHeight="12210" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="21840" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L30" sqref="L30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1312,13 +1312,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="50.28515625" customWidth="1"/>
+    <col min="2" max="2" width="23" customWidth="1"/>
+    <col min="3" max="3" width="37.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
